--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS_2024\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CECEF0-20A8-4CCB-9719-EEB6E941F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F20C0A-6104-4E1D-B843-491C2C996604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="12090" xr2:uid="{162162BE-98FA-493C-9A39-C7EB3B3B1B03}"/>
+    <workbookView xWindow="7660" yWindow="2230" windowWidth="10340" windowHeight="9380" xr2:uid="{162162BE-98FA-493C-9A39-C7EB3B3B1B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>kategori_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>barang_kode</t>
   </si>
@@ -439,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D892F3A7-935D-4332-B41B-76EB5C261E96}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,12 +451,12 @@
     <col min="5" max="5" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -467,92 +464,74 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2">
+        <v>22000</v>
+      </c>
+      <c r="D2">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>22000</v>
-      </c>
-      <c r="E2">
-        <v>25000</v>
+      <c r="C3">
+        <v>11500</v>
+      </c>
+      <c r="D3">
+        <v>12500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>11500</v>
-      </c>
-      <c r="E3">
-        <v>12500</v>
+      <c r="C4">
+        <v>17500</v>
+      </c>
+      <c r="D4">
+        <v>18500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>17500</v>
-      </c>
-      <c r="E4">
-        <v>18500</v>
+      <c r="C5">
+        <v>89000</v>
+      </c>
+      <c r="D5">
+        <v>92500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>89000</v>
-      </c>
-      <c r="E5">
-        <v>92500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6">
+        <v>3750</v>
       </c>
       <c r="D6">
-        <v>3750</v>
-      </c>
-      <c r="E6">
         <v>4300</v>
       </c>
     </row>
